--- a/merged_survivor_data_final.xlsx
+++ b/merged_survivor_data_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowastate-my.sharepoint.com/personal/smorse_iastate_edu/Documents/Documents/BayesSurvivoR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowastate-my.sharepoint.com/personal/smorse_iastate_edu/Documents/Documents/IowaState/2024-2025/Bayesian/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B2D3EE-DC01-4000-9852-58B61E50B4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6461E5-C8A8-47F3-A9FC-879C87D5020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
